--- a/issues96/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/issues96/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T11:08:19+00:00</t>
+    <t>2024-03-28T15:28:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/issues96/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T15:28:05+00:00</t>
+    <t>2024-04-02T07:24:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/issues96/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T07:24:27+00:00</t>
+    <t>2024-04-02T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -540,7 +540,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>identifiant métier (idDecision) et technique (idNat_decision) de la décision d'orientation</t>
+    <t>identifiants métier (idDecision) et technique (idNat_decision) de la décision d'orientation</t>
   </si>
   <si>
     <t>Other identifiers associated with the document, including version independent identifiers.</t>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>92</v>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>92</v>

--- a/issues96/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/issues96/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T13:59:53+00:00</t>
+    <t>2024-04-03T07:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/issues96/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T07:12:34+00:00</t>
+    <t>2024-04-03T15:04:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/issues96/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T15:04:53+00:00</t>
+    <t>2024-04-04T12:58:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/issues96/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/issues96/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:58:54+00:00</t>
+    <t>2024-04-05T07:48:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/issues96/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-05T07:48:28+00:00</t>
+    <t>2024-04-08T12:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/issues96/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T12:44:22+00:00</t>
+    <t>2024-04-08T13:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
